--- a/freddie_pmms_ref.xlsx
+++ b/freddie_pmms_ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelliegp/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3225F200-C510-314F-A080-90F9EC9EEC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D4CF8D3-053A-D04D-AC4A-D179661C360F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="27220" windowHeight="11620"/>
   </bookViews>
